--- a/1-Common_Text_Small_Assessments_Input_chinese.xlsx
+++ b/1-Common_Text_Small_Assessments_Input_chinese.xlsx
@@ -3340,7 +3340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3351,8 +3351,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
